--- a/Deliveries/Ore Progetto IngSw2.xlsx
+++ b/Deliveries/Ore Progetto IngSw2.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eliseo\Documents\GitHub\guessbideliale\Deliveries\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="72" windowWidth="20112" windowHeight="7992"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
     <sheet name="Foglio2" sheetId="2" r:id="rId2"/>
     <sheet name="Foglio3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -99,6 +104,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -146,7 +154,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -181,7 +189,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -393,15 +401,15 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:F7"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -416,7 +424,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -429,7 +437,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -442,7 +450,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>6</v>
@@ -467,7 +475,7 @@
       </c>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -480,7 +488,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
         <v>0</v>
@@ -493,16 +501,18 @@
         <v>25</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="G6" s="2">
+        <v>120</v>
+      </c>
       <c r="H6" s="2"/>
       <c r="I6" s="1"/>
       <c r="J6" s="2">
         <f>SUM(D6,E6,G6,I6)</f>
-        <v>55</v>
+        <v>175</v>
       </c>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
         <v>1</v>
@@ -515,16 +525,18 @@
         <v>25</v>
       </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="G7" s="2">
+        <v>120</v>
+      </c>
       <c r="H7" s="2"/>
       <c r="I7" s="1"/>
       <c r="J7" s="2">
         <f>SUM(D7,E7,G7,I7)</f>
-        <v>55</v>
+        <v>175</v>
       </c>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
         <v>8</v>
@@ -541,7 +553,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2">
         <f>SUM(G5:H7)</f>
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="1">
@@ -550,17 +562,12 @@
       </c>
       <c r="J8" s="2">
         <f>SUM(J5:K7)</f>
-        <v>110</v>
+        <v>350</v>
       </c>
       <c r="K8" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="G8:H8"/>
@@ -577,6 +584,11 @@
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -588,7 +600,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -600,7 +612,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Deliveries/Ore Progetto IngSw2.xlsx
+++ b/Deliveries/Ore Progetto IngSw2.xlsx
@@ -401,7 +401,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -505,10 +505,12 @@
         <v>120</v>
       </c>
       <c r="H6" s="2"/>
-      <c r="I6" s="1"/>
+      <c r="I6" s="1">
+        <v>6</v>
+      </c>
       <c r="J6" s="2">
         <f>SUM(D6,E6,G6,I6)</f>
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="K6" s="2"/>
     </row>
@@ -529,10 +531,12 @@
         <v>120</v>
       </c>
       <c r="H7" s="2"/>
-      <c r="I7" s="1"/>
+      <c r="I7" s="1">
+        <v>6</v>
+      </c>
       <c r="J7" s="2">
         <f>SUM(D7,E7,G7,I7)</f>
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="K7" s="2"/>
     </row>
@@ -558,16 +562,21 @@
       <c r="H8" s="2"/>
       <c r="I8" s="1">
         <f>SUM(I5:I7)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J8" s="2">
         <f>SUM(J5:K7)</f>
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="K8" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="G8:H8"/>
@@ -584,11 +593,6 @@
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
